--- a/data_group/significance_results_temp_testt.xlsx
+++ b/data_group/significance_results_temp_testt.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CBA_PF_vs_SF_beginning</t>
+          <t>CBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>EBA_PF_vs_SF_beginning</t>
+          <t>EBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -395,7 +395,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SBA_PF_vs_SF_beginning</t>
+          <t>SBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">

--- a/data_group/significance_results_temp_testt.xlsx
+++ b/data_group/significance_results_temp_testt.xlsx
@@ -416,31 +416,31 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.0278121505043636</v>
+        <v>0.1317891923559064</v>
       </c>
       <c r="C2">
-        <v>0.007129717989417757</v>
+        <v>0.04761053184206815</v>
       </c>
       <c r="D2">
-        <v>0.2117144293894865</v>
+        <v>0.5981022429836386</v>
       </c>
       <c r="E2">
-        <v>0.1321759509234865</v>
+        <v>0.001686334991533945</v>
       </c>
       <c r="F2">
-        <v>0.1329346831978848</v>
+        <v>0.001520152402944472</v>
       </c>
       <c r="G2">
-        <v>0.001589115366092776</v>
+        <v>3.219013917113518E-06</v>
       </c>
       <c r="H2">
-        <v>0.06506140709026295</v>
+        <v>9.521406035088758E-06</v>
       </c>
       <c r="I2">
-        <v>0.1397720008448089</v>
+        <v>4.463090007123086E-05</v>
       </c>
       <c r="J2">
-        <v>0.01811874969947638</v>
+        <v>1.956500689948851E-06</v>
       </c>
     </row>
     <row r="3">
@@ -450,31 +450,31 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.6392068039238163</v>
+        <v>0.9930187671814992</v>
       </c>
       <c r="C3">
-        <v>0.9585893790403289</v>
+        <v>0.6655828288034833</v>
       </c>
       <c r="D3">
-        <v>0.1085212005765575</v>
+        <v>0.04130422352180239</v>
       </c>
       <c r="E3">
-        <v>0.02629399100579112</v>
+        <v>0.0002118175689081556</v>
       </c>
       <c r="F3">
-        <v>0.0190284315130107</v>
+        <v>0.0001665093607013917</v>
       </c>
       <c r="G3">
-        <v>0.0002696364504677958</v>
+        <v>8.127359947979795E-07</v>
       </c>
       <c r="H3">
-        <v>0.06810431538314536</v>
+        <v>0.0002167468353562029</v>
       </c>
       <c r="I3">
-        <v>0.02288669203231975</v>
+        <v>8.349316312657924E-05</v>
       </c>
       <c r="J3">
-        <v>0.0008414261747115767</v>
+        <v>1.35045272318304E-06</v>
       </c>
     </row>
     <row r="4">
@@ -484,31 +484,31 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5218046294371351</v>
+        <v>0.3340896832179338</v>
       </c>
       <c r="C4">
-        <v>0.2399361513641439</v>
+        <v>0.130441599991051</v>
       </c>
       <c r="D4">
-        <v>0.007295740308453186</v>
+        <v>0.003076407386186593</v>
       </c>
       <c r="E4">
-        <v>0.009362665412045116</v>
+        <v>0.0001140545804502207</v>
       </c>
       <c r="F4">
-        <v>0.009723158820981083</v>
+        <v>0.0001549803510462354</v>
       </c>
       <c r="G4">
-        <v>0.0004336373810449988</v>
+        <v>3.385328077099828E-06</v>
       </c>
       <c r="H4">
-        <v>0.1213887257544862</v>
+        <v>0.003509951912524143</v>
       </c>
       <c r="I4">
-        <v>0.01032929398676758</v>
+        <v>0.0002146201277286373</v>
       </c>
       <c r="J4">
-        <v>0.0005778380060874817</v>
+        <v>7.602312617489705E-06</v>
       </c>
     </row>
     <row r="5">
@@ -518,31 +518,31 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.534474847345176</v>
+        <v>0.3875726799748055</v>
       </c>
       <c r="C5">
-        <v>0.1063551472452295</v>
+        <v>0.06296955350309925</v>
       </c>
       <c r="D5">
-        <v>0.001321530985023219</v>
+        <v>0.0006599461746962565</v>
       </c>
       <c r="E5">
-        <v>0.01024046272713867</v>
+        <v>0.0004094086692290884</v>
       </c>
       <c r="F5">
-        <v>0.007287649557318642</v>
+        <v>0.0003189465991485644</v>
       </c>
       <c r="G5">
-        <v>0.0004308713980760945</v>
+        <v>1.244278460248695E-05</v>
       </c>
       <c r="H5">
-        <v>0.391949181887004</v>
+        <v>0.0427916992515707</v>
       </c>
       <c r="I5">
-        <v>0.02810414785829473</v>
+        <v>0.001536078458805316</v>
       </c>
       <c r="J5">
-        <v>0.0008293351489224277</v>
+        <v>2.447092390996103E-05</v>
       </c>
     </row>
     <row r="6">
@@ -552,31 +552,31 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.3279013701531411</v>
+        <v>0.2769363142458922</v>
       </c>
       <c r="C6">
-        <v>0.0633226767410162</v>
+        <v>0.04998977294384827</v>
       </c>
       <c r="D6">
-        <v>0.0005829038449573726</v>
+        <v>0.0004214383212952678</v>
       </c>
       <c r="E6">
-        <v>0.02627473432336185</v>
+        <v>0.007762418425909723</v>
       </c>
       <c r="F6">
-        <v>0.01434292628516436</v>
+        <v>0.004293201239358937</v>
       </c>
       <c r="G6">
-        <v>0.000760053571164171</v>
+        <v>0.0001803685617845563</v>
       </c>
       <c r="H6">
-        <v>0.7320476749557305</v>
+        <v>0.7384610468141288</v>
       </c>
       <c r="I6">
-        <v>0.2941562938831523</v>
+        <v>0.09152481467652709</v>
       </c>
       <c r="J6">
-        <v>0.02275493276238645</v>
+        <v>0.004757490197830793</v>
       </c>
     </row>
     <row r="7">
